--- a/Course Deadlines.xlsx
+++ b/Course Deadlines.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Overview" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Mid-Term Deadlines" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Colors Mean:</t>
   </si>
@@ -61,10 +62,16 @@
     <t>Writing Research Questions</t>
   </si>
   <si>
+    <t>writing research questions</t>
+  </si>
+  <si>
     <t>Checkpoint 1</t>
   </si>
   <si>
     <t>User-Centred Design Techniques</t>
+  </si>
+  <si>
+    <t>employing user-centred design techniques</t>
   </si>
   <si>
     <t>Project Idea Prototype</t>
@@ -73,13 +80,22 @@
     <t>Project Ideation</t>
   </si>
   <si>
+    <t>project ideation</t>
+  </si>
+  <si>
     <t>Project Proposal Outline</t>
+  </si>
+  <si>
+    <t>writing a project proposal outline</t>
   </si>
   <si>
     <t>Checkpoint 2</t>
   </si>
   <si>
     <t>Midterm Project Proposal</t>
+  </si>
+  <si>
+    <t>Project Proposal</t>
   </si>
   <si>
     <t>Defining Principles</t>
@@ -120,6 +136,45 @@
   <si>
     <t>Final Project</t>
   </si>
+  <si>
+    <t xml:space="preserve">This proposal should be used to explore design decisions, consider the context of use and identify the process by which the software project is developed. </t>
+  </si>
+  <si>
+    <t>As such, your proposal should include a reasoned justification that explores the following topics:</t>
+  </si>
+  <si>
+    <t>1) Deliverable components</t>
+  </si>
+  <si>
+    <t>2) The defined timescale of work</t>
+  </si>
+  <si>
+    <t>Course Deadlines</t>
+  </si>
+  <si>
+    <t>3) A formal specification of the desired system</t>
+  </si>
+  <si>
+    <t>4) A clearly defined scope</t>
+  </si>
+  <si>
+    <t>5) Some evidence of requirements</t>
+  </si>
+  <si>
+    <t>6) Research summary</t>
+  </si>
+  <si>
+    <t>7) A description of your approach</t>
+  </si>
+  <si>
+    <t>8) Some early prototypes</t>
+  </si>
+  <si>
+    <t>9) evidence of assumption testing</t>
+  </si>
+  <si>
+    <t>10) A critical evaluation of your concept</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -144,8 +199,66 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Roboto Slab&quot;"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Roboto Slab&quot;"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Roboto Slab&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="&quot;Roboto Slab&quot;"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +305,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4A7D6"/>
         <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -243,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -305,14 +424,22 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="4" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -323,6 +450,10 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -346,6 +477,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -359,6 +493,27 @@
     <xf borderId="1" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -368,6 +523,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -578,7 +737,7 @@
     <col customWidth="1" min="2" max="2" width="13.88"/>
     <col customWidth="1" min="3" max="3" width="33.75"/>
     <col customWidth="1" min="4" max="4" width="19.38"/>
-    <col customWidth="1" min="5" max="5" width="9.88"/>
+    <col customWidth="1" min="5" max="5" width="20.63"/>
     <col customWidth="1" min="7" max="7" width="18.0"/>
   </cols>
   <sheetData>
@@ -803,13 +962,15 @@
       <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="24" t="b">
+      <c r="D7" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -833,16 +994,16 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="25">
+      <c r="A8" s="27">
         <v>6.0</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="28">
         <v>44886.0</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>16</v>
+      <c r="C8" s="29" t="s">
+        <v>17</v>
       </c>
-      <c r="D8" s="28" t="b">
+      <c r="D8" s="30" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="1"/>
@@ -876,12 +1037,14 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
-      <c r="D9" s="24" t="b">
+      <c r="D9" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="31" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -912,9 +1075,9 @@
         <v>44898.0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
-      <c r="D10" s="21" t="b">
+      <c r="D10" s="32" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="1"/>
@@ -944,16 +1107,18 @@
       <c r="A11" s="22">
         <v>8.0</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
-      <c r="D11" s="24" t="b">
+      <c r="D11" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="31" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -980,16 +1145,18 @@
       <c r="A12" s="22">
         <v>9.0</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
-      <c r="D12" s="24" t="b">
+      <c r="D12" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="31" t="s">
+        <v>24</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1013,16 +1180,16 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="30">
+      <c r="A13" s="34">
         <v>9.0</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="35">
         <v>44907.0</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>21</v>
+      <c r="C13" s="36" t="s">
+        <v>25</v>
       </c>
-      <c r="D13" s="33" t="b">
+      <c r="D13" s="37" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -1049,19 +1216,21 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="34">
+      <c r="A14" s="38">
         <v>10.0</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="39">
         <v>44570.0</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>22</v>
+      <c r="C14" s="40" t="s">
+        <v>26</v>
       </c>
-      <c r="D14" s="37" t="b">
+      <c r="D14" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1092,9 +1261,9 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
-      <c r="D15" s="24" t="b">
+      <c r="D15" s="25" t="b">
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -1124,13 +1293,13 @@
       <c r="A16" s="22">
         <v>12.0</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
-      <c r="D16" s="24" t="b">
+      <c r="D16" s="25" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="1"/>
@@ -1164,9 +1333,9 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
-      <c r="D17" s="24" t="b">
+      <c r="D17" s="25" t="b">
         <v>0</v>
       </c>
       <c r="E17" s="1"/>
@@ -1193,16 +1362,16 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="25">
+      <c r="A18" s="27">
         <v>12.0</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="28">
         <v>44928.0</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>26</v>
+      <c r="C18" s="29" t="s">
+        <v>31</v>
       </c>
-      <c r="D18" s="28" t="b">
+      <c r="D18" s="30" t="b">
         <v>0</v>
       </c>
       <c r="E18" s="1"/>
@@ -1232,13 +1401,13 @@
       <c r="A19" s="22">
         <v>13.0</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
-      <c r="D19" s="24" t="b">
+      <c r="D19" s="25" t="b">
         <v>0</v>
       </c>
       <c r="E19" s="1"/>
@@ -1272,9 +1441,9 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
-      <c r="D20" s="24" t="b">
+      <c r="D20" s="25" t="b">
         <v>0</v>
       </c>
       <c r="E20" s="1"/>
@@ -1301,16 +1470,16 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="25">
+      <c r="A21" s="27">
         <v>14.0</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="28">
         <v>44942.0</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>29</v>
+      <c r="C21" s="29" t="s">
+        <v>34</v>
       </c>
-      <c r="D21" s="28" t="b">
+      <c r="D21" s="30" t="b">
         <v>0</v>
       </c>
       <c r="E21" s="1"/>
@@ -1344,9 +1513,9 @@
         <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
-      <c r="D22" s="24" t="b">
+      <c r="D22" s="25" t="b">
         <v>0</v>
       </c>
       <c r="E22" s="1"/>
@@ -1373,16 +1542,16 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="25">
+      <c r="A23" s="27">
         <v>16.0</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="28">
         <v>44956.0</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>31</v>
+      <c r="C23" s="29" t="s">
+        <v>36</v>
       </c>
-      <c r="D23" s="28" t="b">
+      <c r="D23" s="30" t="b">
         <v>0</v>
       </c>
       <c r="E23" s="1"/>
@@ -1416,9 +1585,9 @@
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
-      <c r="D24" s="24" t="b">
+      <c r="D24" s="25" t="b">
         <v>0</v>
       </c>
       <c r="E24" s="1"/>
@@ -1445,16 +1614,16 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="25">
+      <c r="A25" s="27">
         <v>18.0</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="28">
         <v>44970.0</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>33</v>
+      <c r="C25" s="29" t="s">
+        <v>38</v>
       </c>
-      <c r="D25" s="28" t="b">
+      <c r="D25" s="30" t="b">
         <v>0</v>
       </c>
       <c r="E25" s="1"/>
@@ -1481,16 +1650,16 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="38">
+      <c r="A26" s="43">
         <v>19.0</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>34</v>
+      <c r="C26" s="45" t="s">
+        <v>39</v>
       </c>
-      <c r="D26" s="41" t="b">
+      <c r="D26" s="46" t="b">
         <v>0</v>
       </c>
       <c r="E26" s="1"/>
@@ -1517,16 +1686,16 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="34">
+      <c r="A27" s="38">
         <v>22.0</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="47">
         <v>44998.0</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>35</v>
+      <c r="C27" s="40" t="s">
+        <v>40</v>
       </c>
-      <c r="D27" s="37" t="b">
+      <c r="D27" s="41" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="1"/>
@@ -28797,6 +28966,150 @@
       <c r="Z1000" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C7"/>
+    <hyperlink r:id="rId2" ref="E7"/>
+    <hyperlink r:id="rId3" ref="E9"/>
+    <hyperlink r:id="rId4" ref="E11"/>
+    <hyperlink r:id="rId5" ref="E12"/>
+    <hyperlink r:id="rId6" ref="E14"/>
+  </hyperlinks>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="43.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="52"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="54"/>
+      <c r="B14" s="52"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="54"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="48"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="54"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="54"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="48"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="54"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A3"/>
+    <hyperlink r:id="rId2" ref="A5"/>
+    <hyperlink r:id="rId3" ref="B5"/>
+    <hyperlink r:id="rId4" ref="A7"/>
+    <hyperlink r:id="rId5" ref="A9"/>
+    <hyperlink r:id="rId6" ref="A11"/>
+    <hyperlink r:id="rId7" ref="A13"/>
+    <hyperlink r:id="rId8" ref="A15"/>
+    <hyperlink r:id="rId9" ref="A17"/>
+    <hyperlink r:id="rId10" ref="A19"/>
+    <hyperlink r:id="rId11" ref="A21"/>
+  </hyperlinks>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>